--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H2">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N2">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q2">
-        <v>1136.857862325542</v>
+        <v>1495.426402258094</v>
       </c>
       <c r="R2">
-        <v>10231.72076092988</v>
+        <v>13458.83762032285</v>
       </c>
       <c r="S2">
-        <v>0.002011781528419193</v>
+        <v>0.003575645301352758</v>
       </c>
       <c r="T2">
-        <v>0.002011781528419193</v>
+        <v>0.003575645301352758</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H3">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
         <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q3">
-        <v>5111.048361604363</v>
+        <v>5493.877400791435</v>
       </c>
       <c r="R3">
-        <v>45999.43525443927</v>
+        <v>49444.89660712292</v>
       </c>
       <c r="S3">
-        <v>0.009044501538388858</v>
+        <v>0.01313615761008721</v>
       </c>
       <c r="T3">
-        <v>0.009044501538388856</v>
+        <v>0.01313615761008721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H4">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N4">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O4">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P4">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q4">
-        <v>5643.385981418165</v>
+        <v>5273.355174006008</v>
       </c>
       <c r="R4">
-        <v>50790.47383276349</v>
+        <v>47460.19656605408</v>
       </c>
       <c r="S4">
-        <v>0.009986525186123793</v>
+        <v>0.01260887705461587</v>
       </c>
       <c r="T4">
-        <v>0.009986525186123791</v>
+        <v>0.01260887705461587</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H5">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N5">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q5">
-        <v>900.0975339270065</v>
+        <v>961.7329957384558</v>
       </c>
       <c r="R5">
-        <v>8100.877805343058</v>
+        <v>8655.596961646102</v>
       </c>
       <c r="S5">
-        <v>0.001592810897948025</v>
+        <v>0.002299555539594265</v>
       </c>
       <c r="T5">
-        <v>0.001592810897948025</v>
+        <v>0.002299555539594265</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H6">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N6">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O6">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P6">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q6">
-        <v>5027.256116841669</v>
+        <v>4809.425253456193</v>
       </c>
       <c r="R6">
-        <v>45245.30505157501</v>
+        <v>43284.82728110574</v>
       </c>
       <c r="S6">
-        <v>0.008896222940136003</v>
+        <v>0.01149959555599712</v>
       </c>
       <c r="T6">
-        <v>0.008896222940136003</v>
+        <v>0.01149959555599712</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J7">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N7">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q7">
-        <v>25025.51942417391</v>
+        <v>30624.78168395235</v>
       </c>
       <c r="R7">
-        <v>225229.6748175652</v>
+        <v>275623.0351555712</v>
       </c>
       <c r="S7">
-        <v>0.0442851119608408</v>
+        <v>0.0732255071649318</v>
       </c>
       <c r="T7">
-        <v>0.04428511196084081</v>
+        <v>0.0732255071649318</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J8">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
         <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q8">
         <v>112508.9109992853</v>
@@ -948,10 +948,10 @@
         <v>1012580.198993568</v>
       </c>
       <c r="S8">
-        <v>0.1990955566493739</v>
+        <v>0.2690148832249112</v>
       </c>
       <c r="T8">
-        <v>0.199095556649374</v>
+        <v>0.2690148832249111</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J9">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N9">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O9">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P9">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q9">
-        <v>124227.1968873888</v>
+        <v>107992.8445171334</v>
       </c>
       <c r="R9">
-        <v>1118044.771986499</v>
+        <v>971935.6006542012</v>
       </c>
       <c r="S9">
-        <v>0.2198322132496967</v>
+        <v>0.2582167243365033</v>
       </c>
       <c r="T9">
-        <v>0.2198322132496967</v>
+        <v>0.2582167243365033</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J10">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N10">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q10">
-        <v>19813.7419508747</v>
+        <v>19695.29425739031</v>
       </c>
       <c r="R10">
-        <v>178323.6775578723</v>
+        <v>177257.6483165128</v>
       </c>
       <c r="S10">
-        <v>0.0350623603764284</v>
+        <v>0.04709251238567028</v>
       </c>
       <c r="T10">
-        <v>0.0350623603764284</v>
+        <v>0.04709251238567027</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J11">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N11">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O11">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P11">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q11">
-        <v>110664.4020959344</v>
+        <v>98492.04092557071</v>
       </c>
       <c r="R11">
-        <v>995979.6188634099</v>
+        <v>886428.3683301364</v>
       </c>
       <c r="S11">
-        <v>0.1958315171737833</v>
+        <v>0.235499789775264</v>
       </c>
       <c r="T11">
-        <v>0.1958315171737834</v>
+        <v>0.235499789775264</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H12">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I12">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J12">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N12">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q12">
-        <v>4614.130661693678</v>
+        <v>1008.494290027032</v>
       </c>
       <c r="R12">
-        <v>41527.1759552431</v>
+        <v>9076.448610243287</v>
       </c>
       <c r="S12">
-        <v>0.008165156914092631</v>
+        <v>0.002411364319990041</v>
       </c>
       <c r="T12">
-        <v>0.00816515691409263</v>
+        <v>0.002411364319990041</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H13">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I13">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J13">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
         <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q13">
-        <v>20744.05758204174</v>
+        <v>3704.992756875559</v>
       </c>
       <c r="R13">
-        <v>186696.5182383756</v>
+        <v>33344.93481188003</v>
       </c>
       <c r="S13">
-        <v>0.03670864516224408</v>
+        <v>0.008858837802157304</v>
       </c>
       <c r="T13">
-        <v>0.03670864516224408</v>
+        <v>0.0088588378021573</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H14">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I14">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J14">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N14">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O14">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P14">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q14">
-        <v>22904.64019782395</v>
+        <v>3556.275704534279</v>
       </c>
       <c r="R14">
-        <v>206141.7617804156</v>
+        <v>32006.48134080852</v>
       </c>
       <c r="S14">
-        <v>0.04053200808306067</v>
+        <v>0.008503247297247017</v>
       </c>
       <c r="T14">
-        <v>0.04053200808306067</v>
+        <v>0.008503247297247014</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H15">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I15">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J15">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N15">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q15">
-        <v>3653.198669279375</v>
+        <v>648.5790496063679</v>
       </c>
       <c r="R15">
-        <v>32878.78802351437</v>
+        <v>5837.211446457311</v>
       </c>
       <c r="S15">
-        <v>0.006464693473173422</v>
+        <v>0.001550787539780643</v>
       </c>
       <c r="T15">
-        <v>0.006464693473173421</v>
+        <v>0.001550787539780642</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H16">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I16">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J16">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N16">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O16">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P16">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q16">
-        <v>20403.97252956138</v>
+        <v>3243.40796651608</v>
       </c>
       <c r="R16">
-        <v>183635.7527660524</v>
+        <v>29190.67169864472</v>
       </c>
       <c r="S16">
-        <v>0.03610683129496615</v>
+        <v>0.007755163636492868</v>
       </c>
       <c r="T16">
-        <v>0.03610683129496615</v>
+        <v>0.007755163636492867</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H17">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I17">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J17">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N17">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q17">
-        <v>497.7483836914253</v>
+        <v>1188.446532780231</v>
       </c>
       <c r="R17">
-        <v>4479.735453222827</v>
+        <v>10696.01879502208</v>
       </c>
       <c r="S17">
-        <v>0.0008808146007474908</v>
+        <v>0.00284163985230428</v>
       </c>
       <c r="T17">
-        <v>0.0008808146007474908</v>
+        <v>0.002841639852304279</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H18">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I18">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J18">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
         <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q18">
-        <v>2237.760889257757</v>
+        <v>4366.098885663105</v>
       </c>
       <c r="R18">
-        <v>20139.84800331982</v>
+        <v>39294.88997096795</v>
       </c>
       <c r="S18">
-        <v>0.003959937447957355</v>
+        <v>0.01043957826489438</v>
       </c>
       <c r="T18">
-        <v>0.003959937447957355</v>
+        <v>0.01043957826489438</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H19">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I19">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J19">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N19">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O19">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P19">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q19">
-        <v>2470.833288738235</v>
+        <v>4190.845275436365</v>
       </c>
       <c r="R19">
-        <v>22237.49959864412</v>
+        <v>37717.60747892728</v>
       </c>
       <c r="S19">
-        <v>0.004372381926372631</v>
+        <v>0.01002053741674156</v>
       </c>
       <c r="T19">
-        <v>0.004372381926372632</v>
+        <v>0.01002053741674156</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H20">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I20">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J20">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N20">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q20">
-        <v>394.0880452375434</v>
+        <v>764.309258228844</v>
       </c>
       <c r="R20">
-        <v>3546.792407137891</v>
+        <v>6878.783324059596</v>
       </c>
       <c r="S20">
-        <v>0.000697377461381088</v>
+        <v>0.001827504719616894</v>
       </c>
       <c r="T20">
-        <v>0.000697377461381088</v>
+        <v>0.001827504719616894</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H21">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I21">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J21">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N21">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O21">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P21">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q21">
-        <v>2201.074285084399</v>
+        <v>3822.150497346391</v>
       </c>
       <c r="R21">
-        <v>19809.66856575959</v>
+        <v>34399.35447611751</v>
       </c>
       <c r="S21">
-        <v>0.003895016902423709</v>
+        <v>0.009138968287749287</v>
       </c>
       <c r="T21">
-        <v>0.00389501690242371</v>
+        <v>0.009138968287749287</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H22">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N22">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q22">
-        <v>4780.023625627303</v>
+        <v>363.5621568518243</v>
       </c>
       <c r="R22">
-        <v>43020.21263064573</v>
+        <v>3272.059411666419</v>
       </c>
       <c r="S22">
-        <v>0.008458720790102322</v>
+        <v>0.0008692967543798521</v>
       </c>
       <c r="T22">
-        <v>0.008458720790102322</v>
+        <v>0.000869296754379852</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H23">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N23">
         <v>247.930015</v>
       </c>
       <c r="O23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q23">
-        <v>21489.8737386721</v>
+        <v>1335.649761362516</v>
       </c>
       <c r="R23">
-        <v>193408.8636480489</v>
+        <v>12020.84785226264</v>
       </c>
       <c r="S23">
-        <v>0.03802844002598924</v>
+        <v>0.003193610722839546</v>
       </c>
       <c r="T23">
-        <v>0.03802844002598924</v>
+        <v>0.003193610722839545</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H24">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N24">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O24">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P24">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q24">
-        <v>23728.13630767524</v>
+        <v>1282.037269110931</v>
       </c>
       <c r="R24">
-        <v>213553.2267690771</v>
+        <v>11538.33542199838</v>
       </c>
       <c r="S24">
-        <v>0.04198926524547757</v>
+        <v>0.003065420358055479</v>
       </c>
       <c r="T24">
-        <v>0.04198926524547758</v>
+        <v>0.003065420358055479</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H25">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N25">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q25">
-        <v>3784.543011154313</v>
+        <v>233.812725065084</v>
       </c>
       <c r="R25">
-        <v>34060.88710038881</v>
+        <v>2104.314525585756</v>
       </c>
       <c r="S25">
-        <v>0.006697120172766156</v>
+        <v>0.0005590588547273503</v>
       </c>
       <c r="T25">
-        <v>0.006697120172766156</v>
+        <v>0.0005590588547273502</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H26">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N26">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O26">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P26">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q26">
-        <v>21137.56152543666</v>
+        <v>1169.248460321345</v>
       </c>
       <c r="R26">
-        <v>190238.0537289299</v>
+        <v>10523.23614289211</v>
       </c>
       <c r="S26">
-        <v>0.0374049889981064</v>
+        <v>0.002795736224095637</v>
       </c>
       <c r="T26">
-        <v>0.03740498899810641</v>
+        <v>0.002795736224095637</v>
       </c>
     </row>
   </sheetData>
